--- a/Assets/StreamingAssets/8_Lai.xlsx
+++ b/Assets/StreamingAssets/8_Lai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC1BCB7-95A8-EF41-8F60-A92D07285D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DDA7A-F5F7-8243-BF08-8DF2220D6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="5220" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,39 +153,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have nothing to do with Lord Xu’s death!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>That’s not for you to decide. As you saw just now, Ming has entrusted me to investigate the matter.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hmph. Fine—ask away.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why are you staying at the manor?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>About half a month ago, I met Ming in town at the foot of the mountain.
-I complimented his calligraphy—it wasn’t bad.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Then he insisted on inviting me to stay at the manor, so I figured, why not?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw Lord Xu?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I don’t quite remember… maybe during lunch?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To be honest, I hardly ever leave my room except for meals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,22 +181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I didn’t go anywhere—I went back to my room and slept.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I only came here because that housekeeper banged on my door and insisted I join this gathering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So after returning to your room, you never left again?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exactly! Aren’t you done yet? I already told you—I was asleep the whole time! I didn’t see or hear a thing!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +194,38 @@
   </si>
   <si>
     <t>8_Lai_Fu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have nothing to do with the Lord’s death!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hmph. Fine——ask away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About half a month ago, I met Ming in town at the foot of the mountain. I complimented his calligraphy——it wasn’t bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t quite remember......maybe during lunch?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn’t go anywhere——I went back to my room and slept.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I only came here because that butler banged on my door and insisted I join this gathering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly! Aren’t you done yet? I already told you——I was asleep the whole time! I didn’t see or hear a thing!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -696,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -725,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -745,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -765,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -779,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -799,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -819,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -839,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -859,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -879,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -899,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -919,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -934,12 +933,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="17">
+    <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -959,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -979,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -999,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1016,13 +1015,13 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
